--- a/src/main/resources/输出模板.xlsx
+++ b/src/main/resources/输出模板.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongxin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongxin/ai_work/workspace/lh/lhcrm/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="28160" windowHeight="15440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模拟结果" sheetId="1" r:id="rId1"/>
     <sheet name="组合违约分布" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="150000" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1079,42 +1076,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1168,6 +1129,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,7 +1226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]组合违约分布!$C$4</c:f>
+              <c:f>组合违约分布!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1241,7 +1238,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]组合违约分布!$B$5:$B$55</c:f>
+              <c:f>组合违约分布!$B$5:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1403,163 +1400,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]组合违约分布!$C$5:$C$55</c:f>
+              <c:f>组合违约分布!$C$5:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0.48392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.133515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.066</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08361</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.064175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.070365</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.027915</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01543</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00803</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.008815</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.004155</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.005995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.002535</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.00162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.00122</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.000845</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.000925</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.00022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.000245</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.000145</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.00013</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7E-5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5E-5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0E-6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1578,11 +1422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502414864"/>
-        <c:axId val="502416640"/>
+        <c:axId val="12369920"/>
+        <c:axId val="13092768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="502414864"/>
+        <c:axId val="12369920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1592,7 +1436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502416640"/>
+        <c:crossAx val="13092768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1600,10 +1444,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502416640"/>
+        <c:axId val="13092768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7"/>
+          <c:max val="1.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1639,7 +1483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502414864"/>
+        <c:crossAx val="12369920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1706,7 +1550,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]组合违约分布!$H$4</c:f>
+              <c:f>组合违约分布!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1718,7 +1562,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>[1]组合违约分布!$G$5:$G$55</c:f>
+              <c:f>组合违约分布!$G$5:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1880,163 +1724,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]组合违约分布!$H$5:$H$55</c:f>
+              <c:f>组合违约分布!$H$5:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0.51017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.226735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15115</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05086</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02861</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.007895</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00129</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000535</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.00015</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0E-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2055,11 +1746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502461392"/>
-        <c:axId val="502463168"/>
+        <c:axId val="13262144"/>
+        <c:axId val="13264464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="502461392"/>
+        <c:axId val="13262144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,7 +1760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502463168"/>
+        <c:crossAx val="13264464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,10 +1768,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502463168"/>
+        <c:axId val="13264464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7"/>
+          <c:max val="1.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2116,7 +1807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502461392"/>
+        <c:crossAx val="13262144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,7 +1877,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]组合违约分布!$B$5:$B$48</c:f>
+              <c:f>组合违约分布!$B$5:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="44"/>
@@ -2327,142 +2018,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]组合违约分布!$D$5:$D$48</c:f>
+              <c:f>组合违约分布!$D$5:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0.48392</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.617435</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.683435</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.767045</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.901585</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.94943</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96486</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97289</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.981705</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98586</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.991855</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99439</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99601</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99723</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.998075</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99922</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.999465</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99961</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.99974</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.99982</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99989</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.99993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.99995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.999985</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.999985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2481,11 +2040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="495900208"/>
-        <c:axId val="495902528"/>
+        <c:axId val="12065184"/>
+        <c:axId val="12067504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="495900208"/>
+        <c:axId val="12065184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21"/>
@@ -2497,12 +2056,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495902528"/>
+        <c:crossAx val="12067504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495902528"/>
+        <c:axId val="12067504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2541,7 +2100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495900208"/>
+        <c:crossAx val="12065184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2627,7 +2186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]组合违约分布!$V$29</c:f>
+              <c:f>组合违约分布!$V$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2635,7 +2194,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]组合违约分布!$B$5:$B$45</c:f>
+              <c:f>组合违约分布!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2767,133 +2326,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]组合违约分布!$J$5:$J$45</c:f>
+              <c:f>组合违约分布!$J$5:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0.48983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.263095</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.111945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0610849999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0324749999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0174549999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0095599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.00410999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.00207999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.000789999999999957</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.000255000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.000105000000000022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.000000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.00000000003276E-6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.00000000003276E-6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.00000000003276E-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2912,11 +2348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="502930688"/>
-        <c:axId val="502934080"/>
+        <c:axId val="12091184"/>
+        <c:axId val="12094576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="502930688"/>
+        <c:axId val="12091184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2947,12 +2383,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502934080"/>
+        <c:crossAx val="12094576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502934080"/>
+        <c:axId val="12094576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2991,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502930688"/>
+        <c:crossAx val="12091184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3028,7 +2464,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +2500,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +2536,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +2572,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +2609,7 @@
         <cdr:cNvPr id="3" name="chart">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -3199,1019 +2635,6 @@
     </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="资产池信息"/>
-      <sheetName val="分期摊还"/>
-      <sheetName val="资产池统计量"/>
-      <sheetName val="组合违约分布"/>
-      <sheetName val="模拟结果"/>
-      <sheetName val="违约相关性"/>
-      <sheetName val="5次平均"/>
-      <sheetName val="资产相关性"/>
-      <sheetName val="违约率表"/>
-      <sheetName val="资产相关系数矩阵"/>
-      <sheetName val="行业代码"/>
-      <sheetName val="映射表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>违约比率发生概率</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>损失比率发生概率</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0.48392000000000002</v>
-          </cell>
-          <cell r="D5">
-            <v>0.48392000000000002</v>
-          </cell>
-          <cell r="G5">
-            <v>0</v>
-          </cell>
-          <cell r="H5">
-            <v>0.51017000000000001</v>
-          </cell>
-          <cell r="J5">
-            <v>0.48982999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.02</v>
-          </cell>
-          <cell r="C6">
-            <v>0.13351499999999999</v>
-          </cell>
-          <cell r="D6">
-            <v>0.61743500000000007</v>
-          </cell>
-          <cell r="G6">
-            <v>0.02</v>
-          </cell>
-          <cell r="H6">
-            <v>0.22673499999999999</v>
-          </cell>
-          <cell r="J6">
-            <v>0.26309499999999997</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.04</v>
-          </cell>
-          <cell r="C7">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>0.68343500000000001</v>
-          </cell>
-          <cell r="G7">
-            <v>0.04</v>
-          </cell>
-          <cell r="H7">
-            <v>0.15115000000000001</v>
-          </cell>
-          <cell r="J7">
-            <v>0.11194499999999996</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.06</v>
-          </cell>
-          <cell r="C8">
-            <v>8.3610000000000004E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>0.76704499999999998</v>
-          </cell>
-          <cell r="G8">
-            <v>0.06</v>
-          </cell>
-          <cell r="H8">
-            <v>5.0860000000000002E-2</v>
-          </cell>
-          <cell r="J8">
-            <v>6.1084999999999945E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.08</v>
-          </cell>
-          <cell r="C9">
-            <v>6.4174999999999996E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>0.83121999999999996</v>
-          </cell>
-          <cell r="G9">
-            <v>0.08</v>
-          </cell>
-          <cell r="H9">
-            <v>2.861E-2</v>
-          </cell>
-          <cell r="J9">
-            <v>3.2474999999999921E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.1</v>
-          </cell>
-          <cell r="C10">
-            <v>7.0364999999999997E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>0.90158499999999997</v>
-          </cell>
-          <cell r="G10">
-            <v>0.1</v>
-          </cell>
-          <cell r="H10">
-            <v>1.502E-2</v>
-          </cell>
-          <cell r="J10">
-            <v>1.7454999999999887E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.12</v>
-          </cell>
-          <cell r="C11">
-            <v>2.7914999999999999E-2</v>
-          </cell>
-          <cell r="D11">
-            <v>0.92949999999999999</v>
-          </cell>
-          <cell r="G11">
-            <v>0.12</v>
-          </cell>
-          <cell r="H11">
-            <v>7.8949999999999992E-3</v>
-          </cell>
-          <cell r="J11">
-            <v>9.5599999999999019E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="C12">
-            <v>1.993E-2</v>
-          </cell>
-          <cell r="D12">
-            <v>0.94943</v>
-          </cell>
-          <cell r="G12">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="H12">
-            <v>5.45E-3</v>
-          </cell>
-          <cell r="J12">
-            <v>4.109999999999947E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.16</v>
-          </cell>
-          <cell r="C13">
-            <v>1.5429999999999999E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>0.96486000000000005</v>
-          </cell>
-          <cell r="G13">
-            <v>0.16</v>
-          </cell>
-          <cell r="H13">
-            <v>2.0300000000000001E-3</v>
-          </cell>
-          <cell r="J13">
-            <v>2.0799999999999708E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.18</v>
-          </cell>
-          <cell r="C14">
-            <v>8.0300000000000007E-3</v>
-          </cell>
-          <cell r="D14">
-            <v>0.97289000000000003</v>
-          </cell>
-          <cell r="G14">
-            <v>0.18</v>
-          </cell>
-          <cell r="H14">
-            <v>1.2899999999999999E-3</v>
-          </cell>
-          <cell r="J14">
-            <v>7.899999999999574E-4</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.2</v>
-          </cell>
-          <cell r="C15">
-            <v>8.8149999999999999E-3</v>
-          </cell>
-          <cell r="D15">
-            <v>0.98170500000000005</v>
-          </cell>
-          <cell r="G15">
-            <v>0.2</v>
-          </cell>
-          <cell r="H15">
-            <v>5.3499999999999999E-4</v>
-          </cell>
-          <cell r="J15">
-            <v>2.5500000000000522E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.22</v>
-          </cell>
-          <cell r="C16">
-            <v>4.1549999999999998E-3</v>
-          </cell>
-          <cell r="D16">
-            <v>0.98586000000000007</v>
-          </cell>
-          <cell r="G16">
-            <v>0.22</v>
-          </cell>
-          <cell r="H16">
-            <v>1.4999999999999999E-4</v>
-          </cell>
-          <cell r="J16">
-            <v>1.0500000000002174E-4</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.24</v>
-          </cell>
-          <cell r="C17">
-            <v>5.9950000000000003E-3</v>
-          </cell>
-          <cell r="D17">
-            <v>0.99185500000000004</v>
-          </cell>
-          <cell r="G17">
-            <v>0.24</v>
-          </cell>
-          <cell r="H17">
-            <v>6.4999999999999994E-5</v>
-          </cell>
-          <cell r="J17">
-            <v>4.0000000000040004E-5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.26</v>
-          </cell>
-          <cell r="C18">
-            <v>2.5349999999999999E-3</v>
-          </cell>
-          <cell r="D18">
-            <v>0.99439</v>
-          </cell>
-          <cell r="G18">
-            <v>0.26</v>
-          </cell>
-          <cell r="H18">
-            <v>2.0000000000000002E-5</v>
-          </cell>
-          <cell r="J18">
-            <v>2.0000000000020002E-5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.28000000000000003</v>
-          </cell>
-          <cell r="C19">
-            <v>1.6199999999999999E-3</v>
-          </cell>
-          <cell r="D19">
-            <v>0.99600999999999995</v>
-          </cell>
-          <cell r="G19">
-            <v>0.28000000000000003</v>
-          </cell>
-          <cell r="H19">
-            <v>1.5E-5</v>
-          </cell>
-          <cell r="J19">
-            <v>5.000000000032756E-6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.3</v>
-          </cell>
-          <cell r="C20">
-            <v>1.2199999999999999E-3</v>
-          </cell>
-          <cell r="D20">
-            <v>0.99722999999999995</v>
-          </cell>
-          <cell r="G20">
-            <v>0.3</v>
-          </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-          <cell r="J20">
-            <v>5.000000000032756E-6</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.32</v>
-          </cell>
-          <cell r="C21">
-            <v>8.4500000000000005E-4</v>
-          </cell>
-          <cell r="D21">
-            <v>0.99807499999999993</v>
-          </cell>
-          <cell r="G21">
-            <v>0.32</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
-          </cell>
-          <cell r="J21">
-            <v>5.000000000032756E-6</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.34</v>
-          </cell>
-          <cell r="C22">
-            <v>9.2500000000000004E-4</v>
-          </cell>
-          <cell r="D22">
-            <v>0.99899999999999989</v>
-          </cell>
-          <cell r="G22">
-            <v>0.34</v>
-          </cell>
-          <cell r="H22">
-            <v>5.0000000000000004E-6</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.36</v>
-          </cell>
-          <cell r="C23">
-            <v>2.2000000000000001E-4</v>
-          </cell>
-          <cell r="D23">
-            <v>0.99921999999999989</v>
-          </cell>
-          <cell r="G23">
-            <v>0.36</v>
-          </cell>
-          <cell r="H23">
-            <v>0</v>
-          </cell>
-          <cell r="J23">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.38</v>
-          </cell>
-          <cell r="C24">
-            <v>2.4499999999999999E-4</v>
-          </cell>
-          <cell r="D24">
-            <v>0.99946499999999994</v>
-          </cell>
-          <cell r="G24">
-            <v>0.38</v>
-          </cell>
-          <cell r="H24">
-            <v>0</v>
-          </cell>
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0.4</v>
-          </cell>
-          <cell r="C25">
-            <v>1.45E-4</v>
-          </cell>
-          <cell r="D25">
-            <v>0.99960999999999989</v>
-          </cell>
-          <cell r="G25">
-            <v>0.4</v>
-          </cell>
-          <cell r="H25">
-            <v>0</v>
-          </cell>
-          <cell r="J25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.42</v>
-          </cell>
-          <cell r="C26">
-            <v>1.2999999999999999E-4</v>
-          </cell>
-          <cell r="D26">
-            <v>0.99973999999999985</v>
-          </cell>
-          <cell r="G26">
-            <v>0.42</v>
-          </cell>
-          <cell r="H26">
-            <v>0</v>
-          </cell>
-          <cell r="J26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0.44</v>
-          </cell>
-          <cell r="C27">
-            <v>8.0000000000000007E-5</v>
-          </cell>
-          <cell r="D27">
-            <v>0.99981999999999982</v>
-          </cell>
-          <cell r="G27">
-            <v>0.44</v>
-          </cell>
-          <cell r="H27">
-            <v>0</v>
-          </cell>
-          <cell r="J27">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0.46</v>
-          </cell>
-          <cell r="C28">
-            <v>6.9999999999999994E-5</v>
-          </cell>
-          <cell r="D28">
-            <v>0.99988999999999983</v>
-          </cell>
-          <cell r="G28">
-            <v>0.46</v>
-          </cell>
-          <cell r="H28">
-            <v>0</v>
-          </cell>
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0.48</v>
-          </cell>
-          <cell r="C29">
-            <v>4.0000000000000003E-5</v>
-          </cell>
-          <cell r="D29">
-            <v>0.99992999999999987</v>
-          </cell>
-          <cell r="G29">
-            <v>0.48</v>
-          </cell>
-          <cell r="H29">
-            <v>0</v>
-          </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0.5</v>
-          </cell>
-          <cell r="C30">
-            <v>2.0000000000000002E-5</v>
-          </cell>
-          <cell r="D30">
-            <v>0.99994999999999989</v>
-          </cell>
-          <cell r="G30">
-            <v>0.5</v>
-          </cell>
-          <cell r="H30">
-            <v>0</v>
-          </cell>
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.52</v>
-          </cell>
-          <cell r="C31">
-            <v>2.0000000000000002E-5</v>
-          </cell>
-          <cell r="D31">
-            <v>0.99996999999999991</v>
-          </cell>
-          <cell r="G31">
-            <v>0.52</v>
-          </cell>
-          <cell r="H31">
-            <v>0</v>
-          </cell>
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0.54</v>
-          </cell>
-          <cell r="C32">
-            <v>1.5E-5</v>
-          </cell>
-          <cell r="D32">
-            <v>0.9999849999999999</v>
-          </cell>
-          <cell r="G32">
-            <v>0.54</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>0.9999849999999999</v>
-          </cell>
-          <cell r="G33">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="H33">
-            <v>0</v>
-          </cell>
-          <cell r="J33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="C34">
-            <v>1.0000000000000001E-5</v>
-          </cell>
-          <cell r="D34">
-            <v>0.99999499999999986</v>
-          </cell>
-          <cell r="G34">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="H34">
-            <v>0</v>
-          </cell>
-          <cell r="J34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0.6</v>
-          </cell>
-          <cell r="C35">
-            <v>5.0000000000000004E-6</v>
-          </cell>
-          <cell r="D35">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G35">
-            <v>0.6</v>
-          </cell>
-          <cell r="H35">
-            <v>0</v>
-          </cell>
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0.62</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-          <cell r="D36">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G36">
-            <v>0.62</v>
-          </cell>
-          <cell r="H36">
-            <v>0</v>
-          </cell>
-          <cell r="J36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>0.64</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G37">
-            <v>0.64</v>
-          </cell>
-          <cell r="H37">
-            <v>0</v>
-          </cell>
-          <cell r="J37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.66</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G38">
-            <v>0.66</v>
-          </cell>
-          <cell r="H38">
-            <v>0</v>
-          </cell>
-          <cell r="J38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0.68</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G39">
-            <v>0.68</v>
-          </cell>
-          <cell r="H39">
-            <v>0</v>
-          </cell>
-          <cell r="J39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0.7</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G40">
-            <v>0.7</v>
-          </cell>
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-          <cell r="J40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0.72</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-          <cell r="D41">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G41">
-            <v>0.72</v>
-          </cell>
-          <cell r="H41">
-            <v>0</v>
-          </cell>
-          <cell r="J41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>0.74</v>
-          </cell>
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-          <cell r="D42">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G42">
-            <v>0.74</v>
-          </cell>
-          <cell r="H42">
-            <v>0</v>
-          </cell>
-          <cell r="J42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.76</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G43">
-            <v>0.76</v>
-          </cell>
-          <cell r="H43">
-            <v>0</v>
-          </cell>
-          <cell r="J43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.78</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G44">
-            <v>0.78</v>
-          </cell>
-          <cell r="H44">
-            <v>0</v>
-          </cell>
-          <cell r="J44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0.8</v>
-          </cell>
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="D45">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G45">
-            <v>0.8</v>
-          </cell>
-          <cell r="H45">
-            <v>0</v>
-          </cell>
-          <cell r="J45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0.82</v>
-          </cell>
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-          <cell r="D46">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G46">
-            <v>0.82</v>
-          </cell>
-          <cell r="H46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0.84</v>
-          </cell>
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-          <cell r="D47">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G47">
-            <v>0.84</v>
-          </cell>
-          <cell r="H47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0.86</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>0.99999999999999989</v>
-          </cell>
-          <cell r="G48">
-            <v>0.86</v>
-          </cell>
-          <cell r="H48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0.88</v>
-          </cell>
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-          <cell r="G49">
-            <v>0.88</v>
-          </cell>
-          <cell r="H49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0.9</v>
-          </cell>
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-          <cell r="G50">
-            <v>0.9</v>
-          </cell>
-          <cell r="H50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>0.92</v>
-          </cell>
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-          <cell r="G51">
-            <v>0.92</v>
-          </cell>
-          <cell r="H51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0.94</v>
-          </cell>
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-          <cell r="G52">
-            <v>0.94</v>
-          </cell>
-          <cell r="H52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0.96</v>
-          </cell>
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-          <cell r="G53">
-            <v>0.96</v>
-          </cell>
-          <cell r="H53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>0.98</v>
-          </cell>
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-          <cell r="G54">
-            <v>0.98</v>
-          </cell>
-          <cell r="H54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1</v>
-          </cell>
-          <cell r="C55">
-            <v>0</v>
-          </cell>
-          <cell r="G55">
-            <v>1</v>
-          </cell>
-          <cell r="H55">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4479,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4543,10 +2966,10 @@
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
@@ -4572,10 +2995,10 @@
     </row>
     <row r="5" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
@@ -4601,10 +3024,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -4622,10 +3045,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -4643,10 +3066,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -4664,10 +3087,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -4685,10 +3108,10 @@
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4706,10 +3129,10 @@
     </row>
     <row r="11" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
@@ -4725,10 +3148,10 @@
     </row>
     <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -4744,10 +3167,10 @@
     </row>
     <row r="13" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -4771,10 +3194,10 @@
     </row>
     <row r="14" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -4794,10 +3217,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4817,10 +3240,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -4840,10 +3263,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -4863,10 +3286,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -4886,10 +3309,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -4909,10 +3332,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -4932,10 +3355,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -4955,10 +3378,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -4978,10 +3401,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -5001,10 +3424,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5024,10 +3447,10 @@
     </row>
     <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="44"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
@@ -5068,10 +3491,10 @@
     </row>
     <row r="27" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="11" t="s">
         <v>2</v>
       </c>
@@ -5099,10 +3522,10 @@
     </row>
     <row r="28" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="16" t="s">
         <v>7</v>
       </c>
@@ -5130,10 +3553,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -5153,10 +3576,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -5176,10 +3599,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -5199,10 +3622,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -5222,10 +3645,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -5245,10 +3668,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -5268,10 +3691,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -5291,10 +3714,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="59"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -5314,10 +3737,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="23"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -5337,10 +3760,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="59"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -5360,10 +3783,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="59"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -5379,10 +3802,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="59"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -5398,10 +3821,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="59"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -5417,10 +3840,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="59"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -5436,10 +3859,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="23"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -5455,10 +3878,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -5474,10 +3897,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="23"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -5493,10 +3916,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -5512,10 +3935,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="23"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -5531,10 +3954,10 @@
     </row>
     <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="57"/>
+      <c r="C48" s="80"/>
       <c r="D48" s="44"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
@@ -5584,6 +4007,40 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
@@ -5594,40 +4051,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5639,7 +4062,7 @@
   <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5716,15 +4139,15 @@
     </row>
     <row r="3" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="53"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
       <c r="M3" s="53"/>
@@ -5749,29 +4172,29 @@
     </row>
     <row r="4" spans="1:31" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="53"/>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="59" t="s">
         <v>47</v>
       </c>
       <c r="K4" s="53"/>
@@ -5798,31 +4221,19 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
-      <c r="B5" s="72">
+      <c r="B5" s="60">
         <v>0</v>
       </c>
-      <c r="C5" s="73">
-        <v>0.4839</v>
-      </c>
-      <c r="D5" s="74">
-        <v>0.4839</v>
-      </c>
-      <c r="E5" s="75">
-        <v>0.5161</v>
-      </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="72">
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="60">
         <v>0</v>
       </c>
-      <c r="H5" s="73">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="I5" s="74">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="J5" s="75">
-        <v>0.48980000000000001</v>
-      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
       <c r="M5" s="53"/>
@@ -5847,31 +4258,19 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="53"/>
-      <c r="B6" s="72">
+      <c r="B6" s="60">
         <v>0.02</v>
       </c>
-      <c r="C6" s="73">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="D6" s="77">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="E6" s="78">
-        <v>0.3826</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="72">
+      <c r="C6" s="61"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="60">
         <v>0.02</v>
       </c>
-      <c r="H6" s="73">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="I6" s="77">
-        <v>0.7369</v>
-      </c>
-      <c r="J6" s="78">
-        <v>0.2631</v>
-      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
@@ -5898,31 +4297,19 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
-      <c r="B7" s="72">
+      <c r="B7" s="60">
         <v>0.04</v>
       </c>
-      <c r="C7" s="73">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D7" s="77">
-        <v>0.68340000000000001</v>
-      </c>
-      <c r="E7" s="78">
-        <v>0.31659999999999999</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="72">
+      <c r="C7" s="61"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="60">
         <v>0.04</v>
       </c>
-      <c r="H7" s="73">
-        <v>0.1512</v>
-      </c>
-      <c r="I7" s="77">
-        <v>0.8881</v>
-      </c>
-      <c r="J7" s="78">
-        <v>0.1119</v>
-      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="53"/>
       <c r="L7" s="53"/>
       <c r="M7" s="53"/>
@@ -5947,31 +4334,19 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="53"/>
-      <c r="B8" s="72">
+      <c r="B8" s="60">
         <v>0.06</v>
       </c>
-      <c r="C8" s="73">
-        <v>8.3599999999999994E-2</v>
-      </c>
-      <c r="D8" s="77">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E8" s="78">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="72">
+      <c r="C8" s="61"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="60">
         <v>0.06</v>
       </c>
-      <c r="H8" s="73">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="I8" s="77">
-        <v>0.93889999999999996</v>
-      </c>
-      <c r="J8" s="78">
-        <v>6.1100000000000002E-2</v>
-      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
       <c r="M8" s="53"/>
@@ -5996,31 +4371,19 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
-      <c r="B9" s="72">
+      <c r="B9" s="60">
         <v>0.08</v>
       </c>
-      <c r="C9" s="73">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="D9" s="77">
-        <v>0.83120000000000005</v>
-      </c>
-      <c r="E9" s="78">
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="72">
+      <c r="C9" s="61"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60">
         <v>0.08</v>
       </c>
-      <c r="H9" s="73">
-        <v>2.86E-2</v>
-      </c>
-      <c r="I9" s="77">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="J9" s="78">
-        <v>3.2500000000000001E-2</v>
-      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
@@ -6045,31 +4408,19 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="53"/>
-      <c r="B10" s="72">
+      <c r="B10" s="60">
         <v>0.1</v>
       </c>
-      <c r="C10" s="73">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="D10" s="77">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="E10" s="78">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="72">
+      <c r="C10" s="61"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="60">
         <v>0.1</v>
       </c>
-      <c r="H10" s="73">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I10" s="77">
-        <v>0.98250000000000004</v>
-      </c>
-      <c r="J10" s="78">
-        <v>1.7500000000000002E-2</v>
-      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
       <c r="M10" s="53"/>
@@ -6094,31 +4445,19 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="53"/>
-      <c r="B11" s="72">
+      <c r="B11" s="60">
         <v>0.12</v>
       </c>
-      <c r="C11" s="73">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="D11" s="77">
-        <v>0.92949999999999999</v>
-      </c>
-      <c r="E11" s="78">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="72">
+      <c r="C11" s="61"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60">
         <v>0.12</v>
       </c>
-      <c r="H11" s="73">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="I11" s="77">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="J11" s="78">
-        <v>9.5999999999999992E-3</v>
-      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
@@ -6143,31 +4482,19 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="53"/>
-      <c r="B12" s="72">
+      <c r="B12" s="60">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C12" s="73">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="D12" s="77">
-        <v>0.94940000000000002</v>
-      </c>
-      <c r="E12" s="78">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="72">
+      <c r="C12" s="61"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="60">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="73">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I12" s="77">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="J12" s="78">
-        <v>4.1000000000000003E-3</v>
-      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
@@ -6192,31 +4519,19 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
-      <c r="B13" s="72">
+      <c r="B13" s="60">
         <v>0.16</v>
       </c>
-      <c r="C13" s="73">
-        <v>1.54E-2</v>
-      </c>
-      <c r="D13" s="77">
-        <v>0.96489999999999998</v>
-      </c>
-      <c r="E13" s="78">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="72">
+      <c r="C13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="60">
         <v>0.16</v>
       </c>
-      <c r="H13" s="73">
-        <v>2E-3</v>
-      </c>
-      <c r="I13" s="77">
-        <v>0.99790000000000001</v>
-      </c>
-      <c r="J13" s="78">
-        <v>2.0999999999999999E-3</v>
-      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
@@ -6241,31 +4556,19 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
-      <c r="B14" s="72">
+      <c r="B14" s="60">
         <v>0.18</v>
       </c>
-      <c r="C14" s="73">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D14" s="77">
-        <v>0.97289999999999999</v>
-      </c>
-      <c r="E14" s="78">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="72">
+      <c r="C14" s="61"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="60">
         <v>0.18</v>
       </c>
-      <c r="H14" s="73">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="I14" s="77">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="J14" s="78">
-        <v>8.0000000000000004E-4</v>
-      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
@@ -6290,31 +4593,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
-      <c r="B15" s="72">
+      <c r="B15" s="60">
         <v>0.2</v>
       </c>
-      <c r="C15" s="73">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="D15" s="77">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="E15" s="78">
-        <v>1.83E-2</v>
-      </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="72">
+      <c r="C15" s="61"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60">
         <v>0.2</v>
       </c>
-      <c r="H15" s="73">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I15" s="77">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="J15" s="78">
-        <v>2.9999999999999997E-4</v>
-      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -6339,31 +4630,19 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
-      <c r="B16" s="72">
+      <c r="B16" s="60">
         <v>0.22</v>
       </c>
-      <c r="C16" s="73">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="D16" s="77">
-        <v>0.9859</v>
-      </c>
-      <c r="E16" s="78">
-        <v>1.41E-2</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="72">
+      <c r="C16" s="61"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="60">
         <v>0.22</v>
       </c>
-      <c r="H16" s="73">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="I16" s="77">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="J16" s="78">
-        <v>1E-4</v>
-      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -6388,31 +4667,19 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
-      <c r="B17" s="72">
+      <c r="B17" s="60">
         <v>0.24</v>
       </c>
-      <c r="C17" s="73">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D17" s="77">
-        <v>0.9919</v>
-      </c>
-      <c r="E17" s="78">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="72">
+      <c r="C17" s="61"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="60">
         <v>0.24</v>
       </c>
-      <c r="H17" s="73">
-        <v>1E-4</v>
-      </c>
-      <c r="I17" s="77">
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
-        <v>0</v>
-      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -6437,31 +4704,19 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
-      <c r="B18" s="72">
+      <c r="B18" s="60">
         <v>0.26</v>
       </c>
-      <c r="C18" s="73">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D18" s="77">
-        <v>0.99439999999999995</v>
-      </c>
-      <c r="E18" s="78">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="72">
+      <c r="C18" s="61"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="60">
         <v>0.26</v>
       </c>
-      <c r="H18" s="73">
-        <v>0</v>
-      </c>
-      <c r="I18" s="77">
-        <v>1</v>
-      </c>
-      <c r="J18" s="78">
-        <v>0</v>
-      </c>
+      <c r="H18" s="61"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
@@ -6486,31 +4741,19 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
-      <c r="B19" s="72">
+      <c r="B19" s="60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C19" s="73">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D19" s="77">
-        <v>0.996</v>
-      </c>
-      <c r="E19" s="78">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="72">
+      <c r="C19" s="61"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="60">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H19" s="73">
-        <v>0</v>
-      </c>
-      <c r="I19" s="77">
-        <v>1</v>
-      </c>
-      <c r="J19" s="78">
-        <v>0</v>
-      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="53"/>
@@ -6535,31 +4778,19 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
-      <c r="B20" s="72">
+      <c r="B20" s="60">
         <v>0.3</v>
       </c>
-      <c r="C20" s="73">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D20" s="77">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="E20" s="78">
-        <v>2.8E-3</v>
-      </c>
-      <c r="F20" s="76"/>
-      <c r="G20" s="72">
+      <c r="C20" s="61"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="60">
         <v>0.3</v>
       </c>
-      <c r="H20" s="73">
-        <v>0</v>
-      </c>
-      <c r="I20" s="77">
-        <v>1</v>
-      </c>
-      <c r="J20" s="78">
-        <v>0</v>
-      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53"/>
@@ -6584,31 +4815,19 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
-      <c r="B21" s="72">
+      <c r="B21" s="60">
         <v>0.32</v>
       </c>
-      <c r="C21" s="73">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D21" s="77">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="E21" s="78">
-        <v>1.9E-3</v>
-      </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="72">
+      <c r="C21" s="61"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="60">
         <v>0.32</v>
       </c>
-      <c r="H21" s="73">
-        <v>0</v>
-      </c>
-      <c r="I21" s="77">
-        <v>1</v>
-      </c>
-      <c r="J21" s="78">
-        <v>0</v>
-      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
@@ -6633,31 +4852,19 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
-      <c r="B22" s="72">
+      <c r="B22" s="60">
         <v>0.34</v>
       </c>
-      <c r="C22" s="73">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="D22" s="77">
-        <v>0.999</v>
-      </c>
-      <c r="E22" s="78">
-        <v>1E-3</v>
-      </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="72">
+      <c r="C22" s="61"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="60">
         <v>0.34</v>
       </c>
-      <c r="H22" s="73">
-        <v>0</v>
-      </c>
-      <c r="I22" s="77">
-        <v>1</v>
-      </c>
-      <c r="J22" s="78">
-        <v>0</v>
-      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
@@ -6682,31 +4889,19 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
-      <c r="B23" s="72">
+      <c r="B23" s="60">
         <v>0.36</v>
       </c>
-      <c r="C23" s="73">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D23" s="77">
-        <v>0.99919999999999998</v>
-      </c>
-      <c r="E23" s="78">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="72">
+      <c r="C23" s="61"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="60">
         <v>0.36</v>
       </c>
-      <c r="H23" s="73">
-        <v>0</v>
-      </c>
-      <c r="I23" s="77">
-        <v>1</v>
-      </c>
-      <c r="J23" s="78">
-        <v>0</v>
-      </c>
+      <c r="H23" s="61"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
       <c r="M23" s="53"/>
@@ -6731,31 +4926,19 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
-      <c r="B24" s="72">
+      <c r="B24" s="60">
         <v>0.38</v>
       </c>
-      <c r="C24" s="73">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D24" s="77">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="E24" s="78">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F24" s="76"/>
-      <c r="G24" s="72">
+      <c r="C24" s="61"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="60">
         <v>0.38</v>
       </c>
-      <c r="H24" s="73">
-        <v>0</v>
-      </c>
-      <c r="I24" s="77">
-        <v>1</v>
-      </c>
-      <c r="J24" s="78">
-        <v>0</v>
-      </c>
+      <c r="H24" s="61"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="53"/>
@@ -6780,31 +4963,19 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="72">
+      <c r="B25" s="60">
         <v>0.4</v>
       </c>
-      <c r="C25" s="73">
-        <v>1E-4</v>
-      </c>
-      <c r="D25" s="77">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="E25" s="78">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="72">
+      <c r="C25" s="61"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="60">
         <v>0.4</v>
       </c>
-      <c r="H25" s="73">
-        <v>0</v>
-      </c>
-      <c r="I25" s="77">
-        <v>1</v>
-      </c>
-      <c r="J25" s="78">
-        <v>0</v>
-      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="53"/>
       <c r="L25" s="53"/>
       <c r="M25" s="53"/>
@@ -6829,31 +5000,19 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
-      <c r="B26" s="72">
+      <c r="B26" s="60">
         <v>0.42</v>
       </c>
-      <c r="C26" s="73">
-        <v>1E-4</v>
-      </c>
-      <c r="D26" s="77">
-        <v>0.99970000000000003</v>
-      </c>
-      <c r="E26" s="78">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="72">
+      <c r="C26" s="61"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="60">
         <v>0.42</v>
       </c>
-      <c r="H26" s="73">
-        <v>0</v>
-      </c>
-      <c r="I26" s="77">
-        <v>1</v>
-      </c>
-      <c r="J26" s="78">
-        <v>0</v>
-      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
       <c r="M26" s="53"/>
@@ -6878,31 +5037,19 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
-      <c r="B27" s="72">
+      <c r="B27" s="60">
         <v>0.44</v>
       </c>
-      <c r="C27" s="73">
-        <v>1E-4</v>
-      </c>
-      <c r="D27" s="77">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E27" s="78">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="72">
+      <c r="C27" s="61"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="60">
         <v>0.44</v>
       </c>
-      <c r="H27" s="73">
-        <v>0</v>
-      </c>
-      <c r="I27" s="77">
-        <v>1</v>
-      </c>
-      <c r="J27" s="78">
-        <v>0</v>
-      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
@@ -6927,31 +5074,19 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="72">
+      <c r="B28" s="60">
         <v>0.46</v>
       </c>
-      <c r="C28" s="73">
-        <v>1E-4</v>
-      </c>
-      <c r="D28" s="77">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E28" s="78">
-        <v>1E-4</v>
-      </c>
-      <c r="F28" s="76"/>
-      <c r="G28" s="72">
+      <c r="C28" s="61"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="60">
         <v>0.46</v>
       </c>
-      <c r="H28" s="73">
-        <v>0</v>
-      </c>
-      <c r="I28" s="77">
-        <v>1</v>
-      </c>
-      <c r="J28" s="78">
-        <v>0</v>
-      </c>
+      <c r="H28" s="61"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
@@ -6976,31 +5111,19 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="72">
+      <c r="B29" s="60">
         <v>0.48</v>
       </c>
-      <c r="C29" s="73">
-        <v>0</v>
-      </c>
-      <c r="D29" s="77">
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="E29" s="78">
-        <v>1E-4</v>
-      </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="72">
+      <c r="C29" s="61"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="60">
         <v>0.48</v>
       </c>
-      <c r="H29" s="73">
-        <v>0</v>
-      </c>
-      <c r="I29" s="77">
-        <v>1</v>
-      </c>
-      <c r="J29" s="78">
-        <v>0</v>
-      </c>
+      <c r="H29" s="61"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
       <c r="K29" s="53"/>
       <c r="L29" s="53"/>
       <c r="M29" s="53"/>
@@ -7025,31 +5148,19 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="72">
+      <c r="B30" s="60">
         <v>0.5</v>
       </c>
-      <c r="C30" s="73">
-        <v>0</v>
-      </c>
-      <c r="D30" s="77">
-        <v>1</v>
-      </c>
-      <c r="E30" s="78">
-        <v>1E-4</v>
-      </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="72">
+      <c r="C30" s="61"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="60">
         <v>0.5</v>
       </c>
-      <c r="H30" s="73">
-        <v>0</v>
-      </c>
-      <c r="I30" s="77">
-        <v>1</v>
-      </c>
-      <c r="J30" s="78">
-        <v>0</v>
-      </c>
+      <c r="H30" s="61"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66"/>
       <c r="K30" s="53"/>
       <c r="L30" s="53"/>
       <c r="M30" s="53"/>
@@ -7074,31 +5185,19 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="72">
+      <c r="B31" s="60">
         <v>0.52</v>
       </c>
-      <c r="C31" s="73">
-        <v>0</v>
-      </c>
-      <c r="D31" s="77">
-        <v>1</v>
-      </c>
-      <c r="E31" s="78">
-        <v>0</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="72">
+      <c r="C31" s="61"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="60">
         <v>0.52</v>
       </c>
-      <c r="H31" s="73">
-        <v>0</v>
-      </c>
-      <c r="I31" s="77">
-        <v>1</v>
-      </c>
-      <c r="J31" s="78">
-        <v>0</v>
-      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="53"/>
       <c r="L31" s="53"/>
       <c r="M31" s="53"/>
@@ -7123,31 +5222,19 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="53"/>
-      <c r="B32" s="72">
+      <c r="B32" s="60">
         <v>0.54</v>
       </c>
-      <c r="C32" s="73">
-        <v>0</v>
-      </c>
-      <c r="D32" s="77">
-        <v>1</v>
-      </c>
-      <c r="E32" s="78">
-        <v>0</v>
-      </c>
-      <c r="F32" s="76"/>
-      <c r="G32" s="72">
+      <c r="C32" s="61"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="60">
         <v>0.54</v>
       </c>
-      <c r="H32" s="73">
-        <v>0</v>
-      </c>
-      <c r="I32" s="77">
-        <v>1</v>
-      </c>
-      <c r="J32" s="78">
-        <v>0</v>
-      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
       <c r="K32" s="53"/>
       <c r="L32" s="53"/>
       <c r="M32" s="53"/>
@@ -7172,31 +5259,19 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
-      <c r="B33" s="72">
+      <c r="B33" s="60">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C33" s="73">
-        <v>0</v>
-      </c>
-      <c r="D33" s="77">
-        <v>1</v>
-      </c>
-      <c r="E33" s="78">
-        <v>0</v>
-      </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="72">
+      <c r="C33" s="61"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="60">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H33" s="73">
-        <v>0</v>
-      </c>
-      <c r="I33" s="77">
-        <v>1</v>
-      </c>
-      <c r="J33" s="78">
-        <v>0</v>
-      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
       <c r="M33" s="53"/>
@@ -7221,31 +5296,19 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="53"/>
-      <c r="B34" s="72">
+      <c r="B34" s="60">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C34" s="73">
-        <v>0</v>
-      </c>
-      <c r="D34" s="77">
-        <v>1</v>
-      </c>
-      <c r="E34" s="78">
-        <v>0</v>
-      </c>
-      <c r="F34" s="76"/>
-      <c r="G34" s="72">
+      <c r="C34" s="61"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="60">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H34" s="73">
-        <v>0</v>
-      </c>
-      <c r="I34" s="77">
-        <v>1</v>
-      </c>
-      <c r="J34" s="78">
-        <v>0</v>
-      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="66"/>
       <c r="K34" s="53"/>
       <c r="L34" s="53"/>
       <c r="M34" s="53"/>
@@ -7270,31 +5333,19 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="53"/>
-      <c r="B35" s="72">
+      <c r="B35" s="60">
         <v>0.6</v>
       </c>
-      <c r="C35" s="73">
-        <v>0</v>
-      </c>
-      <c r="D35" s="77">
-        <v>1</v>
-      </c>
-      <c r="E35" s="78">
-        <v>0</v>
-      </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="72">
+      <c r="C35" s="61"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="60">
         <v>0.6</v>
       </c>
-      <c r="H35" s="73">
-        <v>0</v>
-      </c>
-      <c r="I35" s="77">
-        <v>1</v>
-      </c>
-      <c r="J35" s="78">
-        <v>0</v>
-      </c>
+      <c r="H35" s="61"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="53"/>
       <c r="L35" s="53"/>
       <c r="M35" s="53"/>
@@ -7319,31 +5370,19 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="53"/>
-      <c r="B36" s="72">
+      <c r="B36" s="60">
         <v>0.62</v>
       </c>
-      <c r="C36" s="73">
-        <v>0</v>
-      </c>
-      <c r="D36" s="77">
-        <v>1</v>
-      </c>
-      <c r="E36" s="78">
-        <v>0</v>
-      </c>
-      <c r="F36" s="76"/>
-      <c r="G36" s="72">
+      <c r="C36" s="61"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="60">
         <v>0.62</v>
       </c>
-      <c r="H36" s="73">
-        <v>0</v>
-      </c>
-      <c r="I36" s="77">
-        <v>1</v>
-      </c>
-      <c r="J36" s="78">
-        <v>0</v>
-      </c>
+      <c r="H36" s="61"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="53"/>
       <c r="L36" s="53"/>
       <c r="M36" s="53"/>
@@ -7370,31 +5409,19 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
-      <c r="B37" s="72">
+      <c r="B37" s="60">
         <v>0.64</v>
       </c>
-      <c r="C37" s="73">
-        <v>0</v>
-      </c>
-      <c r="D37" s="77">
-        <v>1</v>
-      </c>
-      <c r="E37" s="78">
-        <v>0</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="72">
+      <c r="C37" s="61"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="60">
         <v>0.64</v>
       </c>
-      <c r="H37" s="73">
-        <v>0</v>
-      </c>
-      <c r="I37" s="77">
-        <v>1</v>
-      </c>
-      <c r="J37" s="78">
-        <v>0</v>
-      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="66"/>
       <c r="K37" s="53"/>
       <c r="L37" s="53"/>
       <c r="M37" s="53"/>
@@ -7419,31 +5446,19 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
-      <c r="B38" s="72">
+      <c r="B38" s="60">
         <v>0.66</v>
       </c>
-      <c r="C38" s="73">
-        <v>0</v>
-      </c>
-      <c r="D38" s="77">
-        <v>1</v>
-      </c>
-      <c r="E38" s="78">
-        <v>0</v>
-      </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="72">
+      <c r="C38" s="61"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="60">
         <v>0.66</v>
       </c>
-      <c r="H38" s="73">
-        <v>0</v>
-      </c>
-      <c r="I38" s="77">
-        <v>1</v>
-      </c>
-      <c r="J38" s="78">
-        <v>0</v>
-      </c>
+      <c r="H38" s="61"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
       <c r="K38" s="53"/>
       <c r="L38" s="53"/>
       <c r="M38" s="53"/>
@@ -7468,31 +5483,19 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="53"/>
-      <c r="B39" s="72">
+      <c r="B39" s="60">
         <v>0.68</v>
       </c>
-      <c r="C39" s="73">
-        <v>0</v>
-      </c>
-      <c r="D39" s="77">
-        <v>1</v>
-      </c>
-      <c r="E39" s="78">
-        <v>0</v>
-      </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="72">
+      <c r="C39" s="61"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="60">
         <v>0.68</v>
       </c>
-      <c r="H39" s="73">
-        <v>0</v>
-      </c>
-      <c r="I39" s="77">
-        <v>1</v>
-      </c>
-      <c r="J39" s="78">
-        <v>0</v>
-      </c>
+      <c r="H39" s="61"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
       <c r="K39" s="53"/>
       <c r="L39" s="53"/>
       <c r="M39" s="53"/>
@@ -7517,31 +5520,19 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="53"/>
-      <c r="B40" s="72">
+      <c r="B40" s="60">
         <v>0.7</v>
       </c>
-      <c r="C40" s="73">
-        <v>0</v>
-      </c>
-      <c r="D40" s="77">
-        <v>1</v>
-      </c>
-      <c r="E40" s="78">
-        <v>0</v>
-      </c>
-      <c r="F40" s="76"/>
-      <c r="G40" s="72">
+      <c r="C40" s="61"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="60">
         <v>0.7</v>
       </c>
-      <c r="H40" s="73">
-        <v>0</v>
-      </c>
-      <c r="I40" s="77">
-        <v>1</v>
-      </c>
-      <c r="J40" s="78">
-        <v>0</v>
-      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="66"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
       <c r="M40" s="53"/>
@@ -7566,31 +5557,19 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="53"/>
-      <c r="B41" s="72">
+      <c r="B41" s="60">
         <v>0.72</v>
       </c>
-      <c r="C41" s="73">
-        <v>0</v>
-      </c>
-      <c r="D41" s="77">
-        <v>1</v>
-      </c>
-      <c r="E41" s="78">
-        <v>0</v>
-      </c>
-      <c r="F41" s="76"/>
-      <c r="G41" s="72">
+      <c r="C41" s="61"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="60">
         <v>0.72</v>
       </c>
-      <c r="H41" s="73">
-        <v>0</v>
-      </c>
-      <c r="I41" s="77">
-        <v>1</v>
-      </c>
-      <c r="J41" s="78">
-        <v>0</v>
-      </c>
+      <c r="H41" s="61"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="66"/>
       <c r="K41" s="53"/>
       <c r="L41" s="53"/>
       <c r="M41" s="53"/>
@@ -7615,31 +5594,19 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="53"/>
-      <c r="B42" s="72">
+      <c r="B42" s="60">
         <v>0.74</v>
       </c>
-      <c r="C42" s="73">
-        <v>0</v>
-      </c>
-      <c r="D42" s="77">
-        <v>1</v>
-      </c>
-      <c r="E42" s="78">
-        <v>0</v>
-      </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="72">
+      <c r="C42" s="61"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="60">
         <v>0.74</v>
       </c>
-      <c r="H42" s="73">
-        <v>0</v>
-      </c>
-      <c r="I42" s="77">
-        <v>1</v>
-      </c>
-      <c r="J42" s="78">
-        <v>0</v>
-      </c>
+      <c r="H42" s="61"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="53"/>
       <c r="L42" s="53"/>
       <c r="M42" s="53"/>
@@ -7664,31 +5631,19 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="53"/>
-      <c r="B43" s="72">
+      <c r="B43" s="60">
         <v>0.76</v>
       </c>
-      <c r="C43" s="73">
-        <v>0</v>
-      </c>
-      <c r="D43" s="77">
-        <v>1</v>
-      </c>
-      <c r="E43" s="78">
-        <v>0</v>
-      </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="72">
+      <c r="C43" s="61"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="60">
         <v>0.76</v>
       </c>
-      <c r="H43" s="73">
-        <v>0</v>
-      </c>
-      <c r="I43" s="77">
-        <v>1</v>
-      </c>
-      <c r="J43" s="78">
-        <v>0</v>
-      </c>
+      <c r="H43" s="61"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
       <c r="K43" s="53"/>
       <c r="L43" s="53"/>
       <c r="M43" s="53"/>
@@ -7713,31 +5668,19 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="53"/>
-      <c r="B44" s="72">
+      <c r="B44" s="60">
         <v>0.78</v>
       </c>
-      <c r="C44" s="73">
-        <v>0</v>
-      </c>
-      <c r="D44" s="77">
-        <v>1</v>
-      </c>
-      <c r="E44" s="78">
-        <v>0</v>
-      </c>
-      <c r="F44" s="76"/>
-      <c r="G44" s="72">
+      <c r="C44" s="61"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="60">
         <v>0.78</v>
       </c>
-      <c r="H44" s="73">
-        <v>0</v>
-      </c>
-      <c r="I44" s="77">
-        <v>1</v>
-      </c>
-      <c r="J44" s="78">
-        <v>0</v>
-      </c>
+      <c r="H44" s="61"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
       <c r="K44" s="53"/>
       <c r="L44" s="53"/>
       <c r="M44" s="53"/>
@@ -7762,31 +5705,19 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="53"/>
-      <c r="B45" s="72">
+      <c r="B45" s="60">
         <v>0.8</v>
       </c>
-      <c r="C45" s="73">
-        <v>0</v>
-      </c>
-      <c r="D45" s="77">
-        <v>1</v>
-      </c>
-      <c r="E45" s="78">
-        <v>0</v>
-      </c>
-      <c r="F45" s="76"/>
-      <c r="G45" s="72">
+      <c r="C45" s="61"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="60">
         <v>0.8</v>
       </c>
-      <c r="H45" s="73">
-        <v>0</v>
-      </c>
-      <c r="I45" s="77">
-        <v>1</v>
-      </c>
-      <c r="J45" s="78">
-        <v>0</v>
-      </c>
+      <c r="H45" s="61"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
       <c r="K45" s="53"/>
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
@@ -7811,31 +5742,19 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="53"/>
-      <c r="B46" s="72">
+      <c r="B46" s="60">
         <v>0.82</v>
       </c>
-      <c r="C46" s="73">
-        <v>0</v>
-      </c>
-      <c r="D46" s="77">
-        <v>1</v>
-      </c>
-      <c r="E46" s="78">
-        <v>0</v>
-      </c>
-      <c r="F46" s="76"/>
-      <c r="G46" s="72">
+      <c r="C46" s="61"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="60">
         <v>0.82</v>
       </c>
-      <c r="H46" s="73">
-        <v>0</v>
-      </c>
-      <c r="I46" s="77">
-        <v>1</v>
-      </c>
-      <c r="J46" s="78">
-        <v>0</v>
-      </c>
+      <c r="H46" s="61"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="66"/>
       <c r="K46" s="53"/>
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
@@ -7860,31 +5779,19 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="53"/>
-      <c r="B47" s="72">
+      <c r="B47" s="60">
         <v>0.84</v>
       </c>
-      <c r="C47" s="73">
-        <v>0</v>
-      </c>
-      <c r="D47" s="77">
-        <v>1</v>
-      </c>
-      <c r="E47" s="78">
-        <v>0</v>
-      </c>
-      <c r="F47" s="76"/>
-      <c r="G47" s="72">
+      <c r="C47" s="61"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="60">
         <v>0.84</v>
       </c>
-      <c r="H47" s="73">
-        <v>0</v>
-      </c>
-      <c r="I47" s="77">
-        <v>1</v>
-      </c>
-      <c r="J47" s="78">
-        <v>0</v>
-      </c>
+      <c r="H47" s="61"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="66"/>
       <c r="K47" s="53"/>
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
@@ -7909,31 +5816,19 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="53"/>
-      <c r="B48" s="72">
+      <c r="B48" s="60">
         <v>0.86</v>
       </c>
-      <c r="C48" s="73">
-        <v>0</v>
-      </c>
-      <c r="D48" s="77">
-        <v>1</v>
-      </c>
-      <c r="E48" s="78">
-        <v>0</v>
-      </c>
-      <c r="F48" s="76"/>
-      <c r="G48" s="72">
+      <c r="C48" s="61"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="60">
         <v>0.86</v>
       </c>
-      <c r="H48" s="73">
-        <v>0</v>
-      </c>
-      <c r="I48" s="77">
-        <v>1</v>
-      </c>
-      <c r="J48" s="78">
-        <v>0</v>
-      </c>
+      <c r="H48" s="61"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
       <c r="K48" s="53"/>
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
@@ -7958,31 +5853,19 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="53"/>
-      <c r="B49" s="72">
+      <c r="B49" s="60">
         <v>0.88</v>
       </c>
-      <c r="C49" s="73">
-        <v>0</v>
-      </c>
-      <c r="D49" s="77">
-        <v>1</v>
-      </c>
-      <c r="E49" s="78">
-        <v>0</v>
-      </c>
-      <c r="F49" s="76"/>
-      <c r="G49" s="72">
+      <c r="C49" s="61"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="60">
         <v>0.88</v>
       </c>
-      <c r="H49" s="73">
-        <v>0</v>
-      </c>
-      <c r="I49" s="77">
-        <v>1</v>
-      </c>
-      <c r="J49" s="78">
-        <v>0</v>
-      </c>
+      <c r="H49" s="61"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
       <c r="K49" s="53"/>
       <c r="L49" s="53"/>
       <c r="M49" s="53"/>
@@ -8007,31 +5890,19 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="53"/>
-      <c r="B50" s="72">
+      <c r="B50" s="60">
         <v>0.9</v>
       </c>
-      <c r="C50" s="73">
-        <v>0</v>
-      </c>
-      <c r="D50" s="77">
-        <v>1</v>
-      </c>
-      <c r="E50" s="78">
-        <v>0</v>
-      </c>
-      <c r="F50" s="76"/>
-      <c r="G50" s="72">
+      <c r="C50" s="61"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="60">
         <v>0.9</v>
       </c>
-      <c r="H50" s="73">
-        <v>0</v>
-      </c>
-      <c r="I50" s="77">
-        <v>1</v>
-      </c>
-      <c r="J50" s="78">
-        <v>0</v>
-      </c>
+      <c r="H50" s="61"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="66"/>
       <c r="K50" s="53"/>
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
@@ -8056,31 +5927,19 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="53"/>
-      <c r="B51" s="72">
+      <c r="B51" s="60">
         <v>0.92</v>
       </c>
-      <c r="C51" s="73">
-        <v>0</v>
-      </c>
-      <c r="D51" s="77">
-        <v>1</v>
-      </c>
-      <c r="E51" s="78">
-        <v>0</v>
-      </c>
-      <c r="F51" s="76"/>
-      <c r="G51" s="72">
+      <c r="C51" s="61"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="60">
         <v>0.92</v>
       </c>
-      <c r="H51" s="73">
-        <v>0</v>
-      </c>
-      <c r="I51" s="77">
-        <v>1</v>
-      </c>
-      <c r="J51" s="78">
-        <v>0</v>
-      </c>
+      <c r="H51" s="61"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
       <c r="K51" s="53"/>
       <c r="L51" s="53"/>
       <c r="M51" s="53"/>
@@ -8105,31 +5964,19 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
-      <c r="B52" s="72">
+      <c r="B52" s="60">
         <v>0.94</v>
       </c>
-      <c r="C52" s="73">
-        <v>0</v>
-      </c>
-      <c r="D52" s="77">
-        <v>1</v>
-      </c>
-      <c r="E52" s="78">
-        <v>0</v>
-      </c>
-      <c r="F52" s="76"/>
-      <c r="G52" s="72">
+      <c r="C52" s="61"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="60">
         <v>0.94</v>
       </c>
-      <c r="H52" s="73">
-        <v>0</v>
-      </c>
-      <c r="I52" s="77">
-        <v>1</v>
-      </c>
-      <c r="J52" s="78">
-        <v>0</v>
-      </c>
+      <c r="H52" s="61"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="66"/>
       <c r="K52" s="53"/>
       <c r="L52" s="53"/>
       <c r="M52" s="53"/>
@@ -8154,31 +6001,19 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="53"/>
-      <c r="B53" s="72">
+      <c r="B53" s="60">
         <v>0.96</v>
       </c>
-      <c r="C53" s="73">
-        <v>0</v>
-      </c>
-      <c r="D53" s="77">
-        <v>1</v>
-      </c>
-      <c r="E53" s="78">
-        <v>0</v>
-      </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="72">
+      <c r="C53" s="61"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="60">
         <v>0.96</v>
       </c>
-      <c r="H53" s="73">
-        <v>0</v>
-      </c>
-      <c r="I53" s="77">
-        <v>1</v>
-      </c>
-      <c r="J53" s="78">
-        <v>0</v>
-      </c>
+      <c r="H53" s="61"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
       <c r="K53" s="53"/>
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
@@ -8203,31 +6038,19 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="53"/>
-      <c r="B54" s="72">
+      <c r="B54" s="60">
         <v>0.98</v>
       </c>
-      <c r="C54" s="73">
-        <v>0</v>
-      </c>
-      <c r="D54" s="77">
-        <v>1</v>
-      </c>
-      <c r="E54" s="78">
-        <v>0</v>
-      </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="72">
+      <c r="C54" s="61"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="60">
         <v>0.98</v>
       </c>
-      <c r="H54" s="73">
-        <v>0</v>
-      </c>
-      <c r="I54" s="77">
-        <v>1</v>
-      </c>
-      <c r="J54" s="78">
-        <v>0</v>
-      </c>
+      <c r="H54" s="61"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="66"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
@@ -8252,31 +6075,19 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="53"/>
-      <c r="B55" s="72">
+      <c r="B55" s="60">
         <v>1</v>
       </c>
-      <c r="C55" s="73">
-        <v>0</v>
-      </c>
-      <c r="D55" s="77">
+      <c r="C55" s="61"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="60">
         <v>1</v>
       </c>
-      <c r="E55" s="78">
-        <v>0</v>
-      </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="72">
-        <v>1</v>
-      </c>
-      <c r="H55" s="73">
-        <v>0</v>
-      </c>
-      <c r="I55" s="77">
-        <v>1</v>
-      </c>
-      <c r="J55" s="78">
-        <v>0</v>
-      </c>
+      <c r="H55" s="61"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="66"/>
       <c r="K55" s="53"/>
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
@@ -8301,15 +6112,15 @@
     </row>
     <row r="56" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="53"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="82"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="53"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="70"/>
       <c r="K56" s="53"/>
       <c r="L56" s="53"/>
       <c r="M56" s="53"/>
@@ -8335,7 +6146,7 @@
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="53"/>
       <c r="B57" s="53"/>
-      <c r="C57" s="76"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="53"/>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>

--- a/src/main/resources/输出模板.xlsx
+++ b/src/main/resources/输出模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="模拟结果" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -915,11 +915,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF9900"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF9900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF9900"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF9900"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF9900"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1175,6 +1199,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,11 +1452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="12369920"/>
-        <c:axId val="13092768"/>
+        <c:axId val="-1688762032"/>
+        <c:axId val="-1689026560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12369920"/>
+        <c:axId val="-1688762032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13092768"/>
+        <c:crossAx val="-1689026560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1444,7 +1474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13092768"/>
+        <c:axId val="-1689026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1483,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12369920"/>
+        <c:crossAx val="-1688762032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,11 +1776,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="13262144"/>
-        <c:axId val="13264464"/>
+        <c:axId val="-1612648144"/>
+        <c:axId val="-1612510304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13262144"/>
+        <c:axId val="-1612648144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13264464"/>
+        <c:crossAx val="-1612510304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13264464"/>
+        <c:axId val="-1612510304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1807,7 +1837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13262144"/>
+        <c:crossAx val="-1612648144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2040,11 +2070,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="12065184"/>
-        <c:axId val="12067504"/>
+        <c:axId val="-1688410768"/>
+        <c:axId val="-1689059264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12065184"/>
+        <c:axId val="-1688410768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21"/>
@@ -2056,12 +2086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12067504"/>
+        <c:crossAx val="-1689059264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12067504"/>
+        <c:axId val="-1689059264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2100,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12065184"/>
+        <c:crossAx val="-1688410768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2162,7 +2192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2348,11 +2377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="12091184"/>
-        <c:axId val="12094576"/>
+        <c:axId val="-1611682208"/>
+        <c:axId val="-1611759456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12091184"/>
+        <c:axId val="-1611682208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2376,19 +2405,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12094576"/>
+        <c:crossAx val="-1611759456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12094576"/>
+        <c:axId val="-1611759456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2427,7 +2455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12091184"/>
+        <c:crossAx val="-1611682208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2900,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3792,11 +3820,15 @@
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="I39" s="41">
+        <v>26</v>
+      </c>
+      <c r="J39" s="42"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="L39" s="41">
+        <v>26</v>
+      </c>
+      <c r="M39" s="42"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
@@ -3811,11 +3843,15 @@
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="I40" s="49">
+        <v>27</v>
+      </c>
+      <c r="J40" s="50"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="L40" s="49">
+        <v>27</v>
+      </c>
+      <c r="M40" s="50"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
@@ -3830,11 +3866,15 @@
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="I41" s="41">
+        <v>28</v>
+      </c>
+      <c r="J41" s="42"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="41">
+        <v>28</v>
+      </c>
+      <c r="M41" s="42"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
@@ -3849,11 +3889,15 @@
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="I42" s="49">
+        <v>29</v>
+      </c>
+      <c r="J42" s="50"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="L42" s="49">
+        <v>29</v>
+      </c>
+      <c r="M42" s="50"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
@@ -3868,11 +3912,15 @@
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="I43" s="41">
+        <v>30</v>
+      </c>
+      <c r="J43" s="42"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="L43" s="41">
+        <v>30</v>
+      </c>
+      <c r="M43" s="42"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
@@ -3887,11 +3935,15 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="I44" s="49">
+        <v>31</v>
+      </c>
+      <c r="J44" s="50"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="L44" s="49">
+        <v>31</v>
+      </c>
+      <c r="M44" s="50"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
@@ -3906,11 +3958,15 @@
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="I45" s="41">
+        <v>32</v>
+      </c>
+      <c r="J45" s="42"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="L45" s="41">
+        <v>32</v>
+      </c>
+      <c r="M45" s="42"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
@@ -3925,11 +3981,15 @@
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="I46" s="49">
+        <v>33</v>
+      </c>
+      <c r="J46" s="50"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="L46" s="49">
+        <v>33</v>
+      </c>
+      <c r="M46" s="50"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
@@ -3944,11 +4004,15 @@
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="I47" s="41">
+        <v>34</v>
+      </c>
+      <c r="J47" s="42"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="L47" s="41">
+        <v>34</v>
+      </c>
+      <c r="M47" s="42"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
@@ -3963,11 +4027,15 @@
       <c r="F48" s="45"/>
       <c r="G48" s="46"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+      <c r="I48" s="49">
+        <v>35</v>
+      </c>
+      <c r="J48" s="50"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="L48" s="49">
+        <v>35</v>
+      </c>
+      <c r="M48" s="50"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
@@ -3980,11 +4048,15 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="I49" s="41">
+        <v>36</v>
+      </c>
+      <c r="J49" s="42"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
+      <c r="L49" s="41">
+        <v>36</v>
+      </c>
+      <c r="M49" s="42"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
@@ -3997,14 +4069,49 @@
       <c r="F50" s="52"/>
       <c r="G50" s="52"/>
       <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
+      <c r="I50" s="49">
+        <v>37</v>
+      </c>
+      <c r="J50" s="50"/>
       <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
+      <c r="L50" s="49">
+        <v>37</v>
+      </c>
+      <c r="M50" s="50"/>
       <c r="N50" s="53"/>
       <c r="O50" s="53"/>
     </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I51" s="41">
+        <v>38</v>
+      </c>
+      <c r="J51" s="42"/>
+      <c r="L51" s="41">
+        <v>38</v>
+      </c>
+      <c r="M51" s="42"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I52" s="49">
+        <v>39</v>
+      </c>
+      <c r="J52" s="50"/>
+      <c r="L52" s="49">
+        <v>39</v>
+      </c>
+      <c r="M52" s="50"/>
+    </row>
+    <row r="53" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="86">
+        <v>40</v>
+      </c>
+      <c r="J53" s="87"/>
+      <c r="L53" s="86">
+        <v>40</v>
+      </c>
+      <c r="M53" s="87"/>
+    </row>
+    <row r="54" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="B4:C4"/>
@@ -4061,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/输出模板.xlsx
+++ b/src/main/resources/输出模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongxin/ai_work/workspace/lh/lhcrm/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyongxin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="模拟结果" sheetId="1" r:id="rId1"/>
     <sheet name="组合违约分布" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" iterate="1" iterateCount="1000" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>模拟结果</t>
   </si>
@@ -209,6 +209,19 @@
   </si>
   <si>
     <t>对于线上任意一点，比如点（7%，1.98%），表示组合的违约率超过7%的概率为1.98%。</t>
+  </si>
+  <si>
+    <t>资产池平均回收率</t>
+    <rPh sb="0" eb="1">
+      <t>zi'chan'chi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ping'jun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui'shou'l</t>
+    </rPh>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -411,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -927,6 +940,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFCC99FF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF9900"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCC99FF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF9900"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF9900"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCC99FF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCC99FF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDB8AFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFFF9900"/>
       </left>
@@ -943,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1048,9 +1091,6 @@
     <xf numFmtId="179" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,12 +1195,42 @@
     <xf numFmtId="10" fontId="21" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="13" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,24 +1243,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1200,10 +1252,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,6 +1261,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDB8AFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1223,7 +1277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1452,11 +1506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1688762032"/>
-        <c:axId val="-1689026560"/>
+        <c:axId val="-703304976"/>
+        <c:axId val="-1080810672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1688762032"/>
+        <c:axId val="-703304976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1689026560"/>
+        <c:crossAx val="-1080810672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1474,10 +1528,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1689026560"/>
+        <c:axId val="-1080810672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="0.7"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1513,7 +1567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1688762032"/>
+        <c:crossAx val="-703304976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1601,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1776,11 +1830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1612648144"/>
-        <c:axId val="-1612510304"/>
+        <c:axId val="-703495840"/>
+        <c:axId val="-703213840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1612648144"/>
+        <c:axId val="-703495840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1612510304"/>
+        <c:crossAx val="-703213840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,10 +1852,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1612510304"/>
+        <c:axId val="-703213840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="0.7"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1837,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1612648144"/>
+        <c:crossAx val="-703495840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1872,7 +1926,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2070,11 +2124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1688410768"/>
-        <c:axId val="-1689059264"/>
+        <c:axId val="-1081078448"/>
+        <c:axId val="-1081024592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1688410768"/>
+        <c:axId val="-1081078448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21"/>
@@ -2086,12 +2140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1689059264"/>
+        <c:crossAx val="-1081024592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1689059264"/>
+        <c:axId val="-1081024592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2130,7 +2184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1688410768"/>
+        <c:crossAx val="-1081078448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2164,7 +2218,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2377,11 +2431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1611682208"/>
-        <c:axId val="-1611759456"/>
+        <c:axId val="-1081005744"/>
+        <c:axId val="-1080943888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1611682208"/>
+        <c:axId val="-1081005744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2411,12 +2465,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1611759456"/>
+        <c:crossAx val="-1080943888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1611759456"/>
+        <c:axId val="-1080943888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2455,7 +2509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1611682208"/>
+        <c:crossAx val="-1081005744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,7 +2546,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2582,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2618,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2600,7 +2654,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2691,7 @@
         <cdr:cNvPr id="3" name="chart">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2928,15 +2982,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.2">
@@ -2994,10 +3049,10 @@
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
@@ -3023,10 +3078,10 @@
     </row>
     <row r="5" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
@@ -3052,10 +3107,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -3073,10 +3128,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -3094,10 +3149,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -3115,10 +3170,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -3134,52 +3189,54 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
       <c r="H10" s="35"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="37"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="1"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
       <c r="H11" s="35"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="89"/>
       <c r="K11" s="1"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -3195,10 +3252,10 @@
     </row>
     <row r="13" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -3207,14 +3264,14 @@
       <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="37" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="7"/>
@@ -3222,277 +3279,277 @@
     </row>
     <row r="14" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>1</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <v>1</v>
       </c>
-      <c r="M14" s="40"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="41">
+      <c r="I15" s="40">
         <v>2</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="41">
+      <c r="L15" s="40">
         <v>2</v>
       </c>
-      <c r="M15" s="42"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="41">
+      <c r="I16" s="40">
         <v>3</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="41">
+      <c r="L16" s="40">
         <v>3</v>
       </c>
-      <c r="M16" s="43"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="41">
+      <c r="I17" s="40">
         <v>4</v>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="41">
+      <c r="L17" s="40">
         <v>4</v>
       </c>
-      <c r="M17" s="42"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="41">
+      <c r="I18" s="40">
         <v>5</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="41">
+      <c r="L18" s="40">
         <v>5</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="72"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="41">
+      <c r="I19" s="40">
         <v>6</v>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="41">
+      <c r="L19" s="40">
         <v>6</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="72"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="41">
+      <c r="I20" s="40">
         <v>7</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="41">
+      <c r="L20" s="40">
         <v>7</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <v>8</v>
       </c>
-      <c r="J21" s="42"/>
+      <c r="J21" s="41"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="41">
+      <c r="L21" s="40">
         <v>8</v>
       </c>
-      <c r="M21" s="42"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="41">
+      <c r="I22" s="40">
         <v>9</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="41">
+      <c r="L22" s="40">
         <v>9</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="41">
+      <c r="I23" s="40">
         <v>10</v>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="41">
+      <c r="L23" s="40">
         <v>10</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="41">
+      <c r="I24" s="40">
         <v>11</v>
       </c>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="41">
+      <c r="L24" s="40">
         <v>11</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="41">
+      <c r="I25" s="40">
         <v>12</v>
       </c>
-      <c r="J25" s="42"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="41">
+      <c r="L25" s="40">
         <v>12</v>
       </c>
-      <c r="M25" s="42"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
@@ -3501,28 +3558,28 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="41">
+      <c r="I26" s="40">
         <v>13</v>
       </c>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="41">
+      <c r="L26" s="40">
         <v>13</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="42"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="11" t="s">
         <v>2</v>
       </c>
@@ -3536,24 +3593,24 @@
         <v>5</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="41">
+      <c r="I27" s="40">
         <v>14</v>
       </c>
-      <c r="J27" s="42"/>
+      <c r="J27" s="41"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="41">
+      <c r="L27" s="40">
         <v>14</v>
       </c>
-      <c r="M27" s="42"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="16" t="s">
         <v>7</v>
       </c>
@@ -3567,475 +3624,475 @@
         <v>10</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="41">
+      <c r="I28" s="40">
         <v>15</v>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="41">
+      <c r="L28" s="40">
         <v>15</v>
       </c>
-      <c r="M28" s="43"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="83"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="41">
+      <c r="I29" s="40">
         <v>16</v>
       </c>
-      <c r="J29" s="42"/>
+      <c r="J29" s="41"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="41">
+      <c r="L29" s="40">
         <v>16</v>
       </c>
-      <c r="M29" s="42"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="72"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="31"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="41">
+      <c r="I30" s="40">
         <v>17</v>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="41">
+      <c r="L30" s="40">
         <v>17</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="41">
+      <c r="I31" s="40">
         <v>18</v>
       </c>
-      <c r="J31" s="42"/>
+      <c r="J31" s="41"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="41">
+      <c r="L31" s="40">
         <v>18</v>
       </c>
-      <c r="M31" s="42"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="41">
+      <c r="I32" s="40">
         <v>19</v>
       </c>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="41">
+      <c r="L32" s="40">
         <v>19</v>
       </c>
-      <c r="M32" s="43"/>
+      <c r="M32" s="42"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="41">
+      <c r="I33" s="40">
         <v>20</v>
       </c>
-      <c r="J33" s="42"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="41">
+      <c r="L33" s="40">
         <v>20</v>
       </c>
-      <c r="M33" s="42"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="41">
+      <c r="I34" s="40">
         <v>21</v>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="41">
+      <c r="L34" s="40">
         <v>21</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="72"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="41">
+      <c r="I35" s="40">
         <v>22</v>
       </c>
-      <c r="J35" s="42"/>
+      <c r="J35" s="41"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="41">
+      <c r="L35" s="40">
         <v>22</v>
       </c>
-      <c r="M35" s="42"/>
+      <c r="M35" s="41"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="41">
+      <c r="I36" s="40">
         <v>23</v>
       </c>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="41">
+      <c r="L36" s="40">
         <v>23</v>
       </c>
-      <c r="M36" s="43"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="23"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="41">
+      <c r="I37" s="40">
         <v>24</v>
       </c>
-      <c r="J37" s="42"/>
+      <c r="J37" s="41"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="41">
+      <c r="L37" s="40">
         <v>24</v>
       </c>
-      <c r="M37" s="42"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="49">
+      <c r="I38" s="48">
         <v>25</v>
       </c>
-      <c r="J38" s="50"/>
+      <c r="J38" s="49"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="49">
+      <c r="L38" s="48">
         <v>25</v>
       </c>
-      <c r="M38" s="50"/>
+      <c r="M38" s="49"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="41">
+      <c r="I39" s="40">
         <v>26</v>
       </c>
-      <c r="J39" s="42"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="41">
+      <c r="L39" s="40">
         <v>26</v>
       </c>
-      <c r="M39" s="42"/>
+      <c r="M39" s="41"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="49">
+      <c r="I40" s="48">
         <v>27</v>
       </c>
-      <c r="J40" s="50"/>
+      <c r="J40" s="49"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="49">
+      <c r="L40" s="48">
         <v>27</v>
       </c>
-      <c r="M40" s="50"/>
+      <c r="M40" s="49"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="41">
+      <c r="I41" s="40">
         <v>28</v>
       </c>
-      <c r="J41" s="42"/>
+      <c r="J41" s="41"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="41">
+      <c r="L41" s="40">
         <v>28</v>
       </c>
-      <c r="M41" s="42"/>
+      <c r="M41" s="41"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="31"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="49">
+      <c r="I42" s="48">
         <v>29</v>
       </c>
-      <c r="J42" s="50"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="49">
+      <c r="L42" s="48">
         <v>29</v>
       </c>
-      <c r="M42" s="50"/>
+      <c r="M42" s="49"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="23"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="41">
+      <c r="I43" s="40">
         <v>30</v>
       </c>
-      <c r="J43" s="42"/>
+      <c r="J43" s="41"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="41">
+      <c r="L43" s="40">
         <v>30</v>
       </c>
-      <c r="M43" s="42"/>
+      <c r="M43" s="41"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="49">
+      <c r="I44" s="48">
         <v>31</v>
       </c>
-      <c r="J44" s="50"/>
+      <c r="J44" s="49"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="49">
+      <c r="L44" s="48">
         <v>31</v>
       </c>
-      <c r="M44" s="50"/>
+      <c r="M44" s="49"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="23"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="41">
+      <c r="I45" s="40">
         <v>32</v>
       </c>
-      <c r="J45" s="42"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="41">
+      <c r="L45" s="40">
         <v>32</v>
       </c>
-      <c r="M45" s="42"/>
+      <c r="M45" s="41"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="49">
+      <c r="I46" s="48">
         <v>33</v>
       </c>
-      <c r="J46" s="50"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="49">
+      <c r="L46" s="48">
         <v>33</v>
       </c>
-      <c r="M46" s="50"/>
+      <c r="M46" s="49"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="72"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="23"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="41">
+      <c r="I47" s="40">
         <v>34</v>
       </c>
-      <c r="J47" s="42"/>
+      <c r="J47" s="41"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="41">
+      <c r="L47" s="40">
         <v>34</v>
       </c>
-      <c r="M47" s="42"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="49">
+      <c r="I48" s="48">
         <v>35</v>
       </c>
-      <c r="J48" s="50"/>
+      <c r="J48" s="49"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="49">
+      <c r="L48" s="48">
         <v>35</v>
       </c>
-      <c r="M48" s="50"/>
+      <c r="M48" s="49"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
@@ -4048,72 +4105,100 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="41">
+      <c r="I49" s="40">
         <v>36</v>
       </c>
-      <c r="J49" s="42"/>
+      <c r="J49" s="41"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="41">
+      <c r="L49" s="40">
         <v>36</v>
       </c>
-      <c r="M49" s="42"/>
+      <c r="M49" s="41"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="49">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="48">
         <v>37</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="49">
+      <c r="J50" s="49"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="48">
         <v>37</v>
       </c>
-      <c r="M50" s="50"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="41">
+      <c r="I51" s="40">
         <v>38</v>
       </c>
-      <c r="J51" s="42"/>
-      <c r="L51" s="41">
+      <c r="J51" s="41"/>
+      <c r="L51" s="40">
         <v>38</v>
       </c>
-      <c r="M51" s="42"/>
+      <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="49">
+      <c r="I52" s="48">
         <v>39</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="L52" s="49">
+      <c r="J52" s="49"/>
+      <c r="L52" s="48">
         <v>39</v>
       </c>
-      <c r="M52" s="50"/>
+      <c r="M52" s="49"/>
     </row>
     <row r="53" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="86">
+      <c r="I53" s="72">
         <v>40</v>
       </c>
-      <c r="J53" s="87"/>
-      <c r="L53" s="86">
+      <c r="J53" s="73"/>
+      <c r="L53" s="72">
         <v>40</v>
       </c>
-      <c r="M53" s="87"/>
+      <c r="M53" s="73"/>
     </row>
     <row r="54" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
@@ -4130,34 +4215,6 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4166,2122 +4223,2123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
     </row>
     <row r="2" spans="1:31" ht="26" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="83" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
     </row>
     <row r="3" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="60">
+      <c r="A5" s="52"/>
+      <c r="B5" s="59">
         <v>0</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="60">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="59">
         <v>0</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="60">
+      <c r="A6" s="52"/>
+      <c r="B6" s="59">
         <v>0.02</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="60">
+      <c r="C6" s="60"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="59">
         <v>0.02</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="85" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="85"/>
+      <c r="AE6" s="88"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="60">
+      <c r="A7" s="52"/>
+      <c r="B7" s="59">
         <v>0.04</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="60">
+      <c r="C7" s="60"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="59">
         <v>0.04</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="60">
+      <c r="A8" s="52"/>
+      <c r="B8" s="59">
         <v>0.06</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="60">
+      <c r="C8" s="60"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="59">
         <v>0.06</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="60">
+      <c r="A9" s="52"/>
+      <c r="B9" s="59">
         <v>0.08</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="60">
+      <c r="C9" s="60"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="59">
         <v>0.08</v>
       </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="60">
+      <c r="A10" s="52"/>
+      <c r="B10" s="59">
         <v>0.1</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="60">
+      <c r="C10" s="60"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="59">
         <v>0.1</v>
       </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
-      <c r="B11" s="60">
+      <c r="A11" s="52"/>
+      <c r="B11" s="59">
         <v>0.12</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="60">
+      <c r="C11" s="60"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="59">
         <v>0.12</v>
       </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="60">
+      <c r="A12" s="52"/>
+      <c r="B12" s="59">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="60">
+      <c r="C12" s="60"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="59">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="60">
+      <c r="A13" s="52"/>
+      <c r="B13" s="59">
         <v>0.16</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="60">
+      <c r="C13" s="60"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="59">
         <v>0.16</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="60">
+      <c r="A14" s="52"/>
+      <c r="B14" s="59">
         <v>0.18</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="60">
+      <c r="C14" s="60"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="59">
         <v>0.18</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="60">
+      <c r="A15" s="52"/>
+      <c r="B15" s="59">
         <v>0.2</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="60">
+      <c r="C15" s="60"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="59">
         <v>0.2</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="60">
+      <c r="A16" s="52"/>
+      <c r="B16" s="59">
         <v>0.22</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="60">
+      <c r="C16" s="60"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="59">
         <v>0.22</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="60">
+      <c r="A17" s="52"/>
+      <c r="B17" s="59">
         <v>0.24</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="60">
+      <c r="C17" s="60"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="59">
         <v>0.24</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="60">
+      <c r="A18" s="52"/>
+      <c r="B18" s="59">
         <v>0.26</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="60">
+      <c r="C18" s="60"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="59">
         <v>0.26</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
-      <c r="AE18" s="53"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="60">
+      <c r="A19" s="52"/>
+      <c r="B19" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="60">
+      <c r="C19" s="60"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="59">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="60">
+      <c r="A20" s="52"/>
+      <c r="B20" s="59">
         <v>0.3</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="60">
+      <c r="C20" s="60"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="59">
         <v>0.3</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
-      <c r="AE20" s="53"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="60">
+      <c r="A21" s="52"/>
+      <c r="B21" s="59">
         <v>0.32</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="60">
+      <c r="C21" s="60"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="59">
         <v>0.32</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="53"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="60">
+      <c r="A22" s="52"/>
+      <c r="B22" s="59">
         <v>0.34</v>
       </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="60">
+      <c r="C22" s="60"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="59">
         <v>0.34</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="60">
+      <c r="A23" s="52"/>
+      <c r="B23" s="59">
         <v>0.36</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="60">
+      <c r="C23" s="60"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="59">
         <v>0.36</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="60">
+      <c r="A24" s="52"/>
+      <c r="B24" s="59">
         <v>0.38</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="60">
+      <c r="C24" s="60"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="59">
         <v>0.38</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="60">
+      <c r="A25" s="52"/>
+      <c r="B25" s="59">
         <v>0.4</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="60">
+      <c r="C25" s="60"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="59">
         <v>0.4</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="60">
+      <c r="A26" s="52"/>
+      <c r="B26" s="59">
         <v>0.42</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="60">
+      <c r="C26" s="60"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="59">
         <v>0.42</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="52"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="60">
+      <c r="A27" s="52"/>
+      <c r="B27" s="59">
         <v>0.44</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="60">
+      <c r="C27" s="60"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="59">
         <v>0.44</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="53"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="60">
+      <c r="A28" s="52"/>
+      <c r="B28" s="59">
         <v>0.46</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="60">
+      <c r="C28" s="60"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="59">
         <v>0.46</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="60">
+      <c r="A29" s="52"/>
+      <c r="B29" s="59">
         <v>0.48</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="60">
+      <c r="C29" s="60"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="59">
         <v>0.48</v>
       </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="60">
+      <c r="A30" s="52"/>
+      <c r="B30" s="59">
         <v>0.5</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="60">
+      <c r="C30" s="60"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="59">
         <v>0.5</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="53"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="52"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="60">
+      <c r="A31" s="52"/>
+      <c r="B31" s="59">
         <v>0.52</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="60">
+      <c r="C31" s="60"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="59">
         <v>0.52</v>
       </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AD31" s="52"/>
+      <c r="AE31" s="52"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="60">
+      <c r="A32" s="52"/>
+      <c r="B32" s="59">
         <v>0.54</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="60">
+      <c r="C32" s="60"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="59">
         <v>0.54</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="53"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="53"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="60">
+      <c r="A33" s="52"/>
+      <c r="B33" s="59">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="60">
+      <c r="C33" s="60"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="59">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+      <c r="AC33" s="52"/>
+      <c r="AD33" s="52"/>
+      <c r="AE33" s="52"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="60">
+      <c r="A34" s="52"/>
+      <c r="B34" s="59">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="60">
+      <c r="C34" s="60"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="59">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+      <c r="AC34" s="52"/>
+      <c r="AD34" s="52"/>
+      <c r="AE34" s="52"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="60">
+      <c r="A35" s="52"/>
+      <c r="B35" s="59">
         <v>0.6</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="60">
+      <c r="C35" s="60"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="59">
         <v>0.6</v>
       </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="52"/>
+      <c r="AE35" s="52"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="60">
+      <c r="A36" s="52"/>
+      <c r="B36" s="59">
         <v>0.62</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="60">
+      <c r="C36" s="60"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="59">
         <v>0.62</v>
       </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="85" t="s">
+      <c r="H36" s="60"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="AE36" s="85"/>
+      <c r="AE36" s="88"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="60">
+      <c r="A37" s="52"/>
+      <c r="B37" s="59">
         <v>0.64</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="60">
+      <c r="C37" s="60"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="59">
         <v>0.64</v>
       </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="88"/>
+      <c r="AE37" s="88"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="60">
+      <c r="A38" s="52"/>
+      <c r="B38" s="59">
         <v>0.66</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="60">
+      <c r="C38" s="60"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="59">
         <v>0.66</v>
       </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="85"/>
-      <c r="AE38" s="85"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="88"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="60">
+      <c r="A39" s="52"/>
+      <c r="B39" s="59">
         <v>0.68</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="60">
+      <c r="C39" s="60"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="59">
         <v>0.68</v>
       </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="85"/>
-      <c r="AE39" s="85"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="60">
+      <c r="A40" s="52"/>
+      <c r="B40" s="59">
         <v>0.7</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="60">
+      <c r="C40" s="60"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="59">
         <v>0.7</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="85"/>
-      <c r="AE40" s="85"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="60">
+      <c r="A41" s="52"/>
+      <c r="B41" s="59">
         <v>0.72</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="60">
+      <c r="C41" s="60"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="59">
         <v>0.72</v>
       </c>
-      <c r="H41" s="61"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="85"/>
-      <c r="AE41" s="85"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="60">
+      <c r="A42" s="52"/>
+      <c r="B42" s="59">
         <v>0.74</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="60">
+      <c r="C42" s="60"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="59">
         <v>0.74</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="60">
+      <c r="A43" s="52"/>
+      <c r="B43" s="59">
         <v>0.76</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="60">
+      <c r="C43" s="60"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="59">
         <v>0.76</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="60">
+      <c r="A44" s="52"/>
+      <c r="B44" s="59">
         <v>0.78</v>
       </c>
-      <c r="C44" s="61"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="60">
+      <c r="C44" s="60"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="59">
         <v>0.78</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="60">
+      <c r="A45" s="52"/>
+      <c r="B45" s="59">
         <v>0.8</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="60">
+      <c r="C45" s="60"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="59">
         <v>0.8</v>
       </c>
-      <c r="H45" s="61"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="60">
+      <c r="A46" s="52"/>
+      <c r="B46" s="59">
         <v>0.82</v>
       </c>
-      <c r="C46" s="61"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="60">
+      <c r="C46" s="60"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="59">
         <v>0.82</v>
       </c>
-      <c r="H46" s="61"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="60">
+      <c r="A47" s="52"/>
+      <c r="B47" s="59">
         <v>0.84</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="60">
+      <c r="C47" s="60"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="59">
         <v>0.84</v>
       </c>
-      <c r="H47" s="61"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="60">
+      <c r="A48" s="52"/>
+      <c r="B48" s="59">
         <v>0.86</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="60">
+      <c r="C48" s="60"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="59">
         <v>0.86</v>
       </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="60">
+      <c r="A49" s="52"/>
+      <c r="B49" s="59">
         <v>0.88</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="60">
+      <c r="C49" s="60"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="59">
         <v>0.88</v>
       </c>
-      <c r="H49" s="61"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="60">
+      <c r="A50" s="52"/>
+      <c r="B50" s="59">
         <v>0.9</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="60">
+      <c r="C50" s="60"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="59">
         <v>0.9</v>
       </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="60">
+      <c r="A51" s="52"/>
+      <c r="B51" s="59">
         <v>0.92</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="60">
+      <c r="C51" s="60"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="59">
         <v>0.92</v>
       </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="60">
+      <c r="A52" s="52"/>
+      <c r="B52" s="59">
         <v>0.94</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="60">
+      <c r="C52" s="60"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="59">
         <v>0.94</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="60">
+      <c r="A53" s="52"/>
+      <c r="B53" s="59">
         <v>0.96</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="60">
+      <c r="C53" s="60"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="59">
         <v>0.96</v>
       </c>
-      <c r="H53" s="61"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="53"/>
-      <c r="AD53" s="53"/>
-      <c r="AE53" s="53"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="60">
+      <c r="A54" s="52"/>
+      <c r="B54" s="59">
         <v>0.98</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="60">
+      <c r="C54" s="60"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="59">
         <v>0.98</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="60">
+      <c r="A55" s="52"/>
+      <c r="B55" s="59">
         <v>1</v>
       </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="60">
+      <c r="C55" s="60"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="59">
         <v>1</v>
       </c>
-      <c r="H55" s="61"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="53"/>
-      <c r="AD55" s="53"/>
-      <c r="AE55" s="53"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
     </row>
     <row r="56" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
-      <c r="Y56" s="53"/>
-      <c r="Z56" s="53"/>
-      <c r="AA56" s="53"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="53"/>
-      <c r="AD56" s="53"/>
-      <c r="AE56" s="53"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
-      <c r="Z57" s="53"/>
-      <c r="AA57" s="53"/>
-      <c r="AB57" s="53"/>
-      <c r="AC57" s="53"/>
-      <c r="AD57" s="53"/>
-      <c r="AE57" s="53"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/输出模板.xlsx
+++ b/src/main/resources/输出模板.xlsx
@@ -15,7 +15,7 @@
     <sheet name="模拟结果" sheetId="1" r:id="rId1"/>
     <sheet name="组合违约分布" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterate="1" iterateCount="1000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>AA</t>
-  </si>
-  <si>
-    <t>蒙特卡罗模拟TDR标准误差</t>
   </si>
   <si>
     <t>AA-</t>
@@ -221,6 +218,10 @@
     <rPh sb="5" eb="6">
       <t>hui'shou'l</t>
     </rPh>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙特卡罗模拟TDR标准差</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1207,6 +1208,27 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,30 +1241,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,9 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,11 +1507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-703304976"/>
-        <c:axId val="-1080810672"/>
+        <c:axId val="-399915856"/>
+        <c:axId val="-399913536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-703304976"/>
+        <c:axId val="-399915856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1080810672"/>
+        <c:crossAx val="-399913536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1528,7 +1529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1080810672"/>
+        <c:axId val="-399913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -1567,7 +1568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-703304976"/>
+        <c:crossAx val="-399915856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,11 +1831,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-703495840"/>
-        <c:axId val="-703213840"/>
+        <c:axId val="-399549200"/>
+        <c:axId val="-433469936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-703495840"/>
+        <c:axId val="-399549200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1844,7 +1845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-703213840"/>
+        <c:crossAx val="-433469936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1852,7 +1853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-703213840"/>
+        <c:axId val="-433469936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -1891,7 +1892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-703495840"/>
+        <c:crossAx val="-399549200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,11 +2125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081078448"/>
-        <c:axId val="-1081024592"/>
+        <c:axId val="-399796176"/>
+        <c:axId val="-399793856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081078448"/>
+        <c:axId val="-399796176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.21"/>
@@ -2140,12 +2141,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1081024592"/>
+        <c:crossAx val="-399793856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081024592"/>
+        <c:axId val="-399793856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2184,7 +2185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1081078448"/>
+        <c:crossAx val="-399796176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2431,11 +2432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081005744"/>
-        <c:axId val="-1080943888"/>
+        <c:axId val="-400214240"/>
+        <c:axId val="-400210848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081005744"/>
+        <c:axId val="-400214240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -2465,12 +2466,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1080943888"/>
+        <c:crossAx val="-400210848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1080943888"/>
+        <c:axId val="-400210848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2509,7 +2510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1081005744"/>
+        <c:crossAx val="-400214240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2546,7 +2547,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2583,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2619,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2655,7 @@
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2692,7 @@
         <cdr:cNvPr id="3" name="chart">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1B0808-F973-44FA-B7F8-EE5060D202A8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -2986,7 +2987,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3049,10 +3050,10 @@
     </row>
     <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
@@ -3067,7 +3068,7 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="7"/>
@@ -3078,10 +3079,10 @@
     </row>
     <row r="5" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
@@ -3107,10 +3108,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -3128,10 +3129,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
@@ -3149,10 +3150,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -3170,10 +3171,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -3191,17 +3192,17 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
       <c r="H10" s="35"/>
       <c r="I10" s="71" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="J10" s="70"/>
       <c r="K10" s="1"/>
@@ -3212,19 +3213,19 @@
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="79"/>
+      <c r="B11" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="76"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="31"/>
       <c r="H11" s="35"/>
       <c r="I11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="89"/>
+        <v>51</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="1"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -3233,10 +3234,10 @@
     </row>
     <row r="12" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="79"/>
+      <c r="B12" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="76"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -3252,37 +3253,37 @@
     </row>
     <row r="13" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="79"/>
+      <c r="B13" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="76"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
       <c r="H13" s="35"/>
       <c r="I13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>25</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>26</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>28</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="79"/>
+      <c r="B14" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="76"/>
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -3302,10 +3303,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="79"/>
+      <c r="B15" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="76"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -3325,10 +3326,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="79"/>
+      <c r="B16" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="76"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -3348,10 +3349,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="79"/>
+      <c r="B17" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="76"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -3371,10 +3372,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="79"/>
+      <c r="B18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="76"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -3394,10 +3395,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="79"/>
+      <c r="B19" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="76"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -3417,10 +3418,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="79"/>
+      <c r="B20" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="76"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -3440,10 +3441,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="79"/>
+      <c r="B21" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="76"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -3463,10 +3464,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="79"/>
+      <c r="B22" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="76"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3486,10 +3487,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="79"/>
+      <c r="B23" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="76"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -3509,10 +3510,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="79"/>
+      <c r="B24" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="76"/>
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -3532,10 +3533,10 @@
     </row>
     <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="77"/>
+      <c r="B25" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="84"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
@@ -3576,10 +3577,10 @@
     </row>
     <row r="27" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="75"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="11" t="s">
         <v>2</v>
       </c>
@@ -3607,10 +3608,10 @@
     </row>
     <row r="28" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="81"/>
+      <c r="B28" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="86"/>
       <c r="D28" s="16" t="s">
         <v>7</v>
       </c>
@@ -3638,10 +3639,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -3661,10 +3662,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -3684,10 +3685,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -3707,10 +3708,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -3730,10 +3731,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -3753,10 +3754,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="79"/>
+      <c r="B34" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="76"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -3776,10 +3777,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="79"/>
+      <c r="B35" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="76"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -3799,10 +3800,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="79"/>
+      <c r="B36" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="76"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -3822,10 +3823,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="79"/>
+      <c r="B37" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="76"/>
       <c r="D37" s="23"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -3845,10 +3846,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="79"/>
+      <c r="B38" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="76"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -3868,10 +3869,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="79"/>
+      <c r="B39" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="76"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -3891,10 +3892,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="79"/>
+      <c r="B40" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="76"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -3914,10 +3915,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="79"/>
+      <c r="B41" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="76"/>
       <c r="D41" s="23"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -3937,10 +3938,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="79"/>
+      <c r="B42" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="76"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -3960,10 +3961,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="79"/>
+      <c r="B43" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="76"/>
       <c r="D43" s="23"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -3983,10 +3984,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="79"/>
+      <c r="B44" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="76"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -4006,10 +4007,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="79"/>
+      <c r="B45" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="76"/>
       <c r="D45" s="23"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -4029,10 +4030,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="79"/>
+      <c r="B46" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="76"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -4052,10 +4053,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
-      <c r="B47" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="79"/>
+      <c r="B47" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="76"/>
       <c r="D47" s="23"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -4075,10 +4076,10 @@
     </row>
     <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="77"/>
+      <c r="B48" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="84"/>
       <c r="D48" s="43"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
@@ -4171,34 +4172,6 @@
     <row r="54" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
@@ -4215,6 +4188,34 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4267,19 +4268,19 @@
     </row>
     <row r="2" spans="1:31" ht="26" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -4338,29 +4339,29 @@
     <row r="4" spans="1:31" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>47</v>
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="56" t="s">
-        <v>49</v>
-      </c>
       <c r="I4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>47</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
@@ -4455,10 +4456,10 @@
       <c r="AA6" s="52"/>
       <c r="AB6" s="52"/>
       <c r="AC6" s="52"/>
-      <c r="AD6" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE6" s="88"/>
+      <c r="AD6" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="89"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
@@ -4494,8 +4495,8 @@
       <c r="AA7" s="52"/>
       <c r="AB7" s="52"/>
       <c r="AC7" s="52"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
@@ -4531,8 +4532,8 @@
       <c r="AA8" s="52"/>
       <c r="AB8" s="52"/>
       <c r="AC8" s="52"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
@@ -4568,8 +4569,8 @@
       <c r="AA9" s="52"/>
       <c r="AB9" s="52"/>
       <c r="AC9" s="52"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
@@ -4605,8 +4606,8 @@
       <c r="AA10" s="52"/>
       <c r="AB10" s="52"/>
       <c r="AC10" s="52"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
@@ -4642,8 +4643,8 @@
       <c r="AA11" s="52"/>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="89"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
@@ -5567,10 +5568,10 @@
       <c r="AA36" s="52"/>
       <c r="AB36" s="52"/>
       <c r="AC36" s="52"/>
-      <c r="AD36" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE36" s="88"/>
+      <c r="AD36" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE36" s="89"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
@@ -5606,8 +5607,8 @@
       <c r="AA37" s="52"/>
       <c r="AB37" s="52"/>
       <c r="AC37" s="52"/>
-      <c r="AD37" s="88"/>
-      <c r="AE37" s="88"/>
+      <c r="AD37" s="89"/>
+      <c r="AE37" s="89"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
@@ -5643,8 +5644,8 @@
       <c r="AA38" s="52"/>
       <c r="AB38" s="52"/>
       <c r="AC38" s="52"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
+      <c r="AD38" s="89"/>
+      <c r="AE38" s="89"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
@@ -5680,8 +5681,8 @@
       <c r="AA39" s="52"/>
       <c r="AB39" s="52"/>
       <c r="AC39" s="52"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
+      <c r="AD39" s="89"/>
+      <c r="AE39" s="89"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="52"/>
@@ -5717,8 +5718,8 @@
       <c r="AA40" s="52"/>
       <c r="AB40" s="52"/>
       <c r="AC40" s="52"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
+      <c r="AD40" s="89"/>
+      <c r="AE40" s="89"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
@@ -5754,8 +5755,8 @@
       <c r="AA41" s="52"/>
       <c r="AB41" s="52"/>
       <c r="AC41" s="52"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
+      <c r="AD41" s="89"/>
+      <c r="AE41" s="89"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="52"/>
